--- a/ListaDeCpfs.xlsx
+++ b/ListaDeCpfs.xlsx
@@ -90,6 +90,22 @@
         <v>1581.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>4.4004265053E10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1581.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>4.4004265053E10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1581.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
